--- a/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>37,66%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31,65%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23,42%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>13.12064717308971</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>13.19368576372411</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7.439645015445445</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.379724085853444</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3837194302136559</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2322753504892651</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5,49; 18,8</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 17,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 13,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14,77; 64,01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>11,93; 55,08</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 45,98</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.270895572318544</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>6.463768641994216</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.7101841984824437</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.126877896325498</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.173603825371133</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.01911627015370931</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>20.76506766494166</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>19.57727947883001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.20166146415554</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6946048592168346</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.6467882303944181</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4665176883825167</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,25</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,67%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-17,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 0,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 1,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; -1,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,16; 6,97</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-21,23; 11,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,44; -6,49</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>-1.754122340445349</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-0.5433765959825171</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-2.938389799684968</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.113706717004204</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.04013288777400825</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1549391799054838</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-4.740269101466173</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-3.092481189563885</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-5.226968010957921</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2760360848714909</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2076305777296624</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2599392309005616</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.8953943297354837</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.076693979394513</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-0.7268729761605995</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06174630857634086</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.165888535919051</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.04033135553703554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-31,75%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-48,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-44,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,64; -1,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; -2,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; -3,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-47,54; -11,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-64,57; -25,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-57,64; -26,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-6.079905256697832</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-4.953876596078205</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-5.663383281841273</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3228780373520596</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.493606198355374</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.4206842406253289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-10.47998413867061</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-8.037092791273054</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-8.849938663471375</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4913127721527826</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.671469450722072</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.571722208596023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>-1.910064036875959</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-2.197320072926554</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>-2.77061900461687</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.1077040561998947</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.2421282195163392</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.2270878295142693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-11,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 3,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 2,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; -0,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 21,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 16,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-19,5; -1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.385189206299559</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1.094811977115684</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-1.890036827131039</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.0749175208545295</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.0702524255323497</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.09895893002474578</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-1.054322973226671</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-1.066911332156002</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-3.649549937271055</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.05036028319077206</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.06622389826065489</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1818530968240654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>3.5743825643635</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2.968993523781581</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-0.04371990013585941</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2057458472718105</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2036825897006582</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.002391555098019365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
